--- a/poznamky/Glossary.xlsx
+++ b/poznamky/Glossary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="4080" windowWidth="33240" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="16860" yWindow="2900" windowWidth="33240" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>LT</t>
   </si>
@@ -90,7 +90,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> at which lactate begins to accumulate in a person's blood, begins to exponentially increase</t>
@@ -142,17 +141,89 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performance ability.When you raise your LT, you can produce more power at a comfortable heart rate</t>
+    </r>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Relation to Others</t>
+  </si>
+  <si>
+    <t>Untrained individuals have a low AT (approximately 55 % of VO2 max), and elite endurance athletes, a high AT (approx. 80 - 90% of VO2 max).</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> respiratory quotient, coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>RQ = CO2 eliminated / O2 consumed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The range of respiratory coefficients for organisms in metabolic balance usually ranges from 1.0 (representing the value expected for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> performance ability.When you raise your LT, you can produce more power at a comfortable heart rate</t>
-    </r>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Links</t>
+      <t>pure carbohydrate oxidation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) to ~0.7 (the value expected for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pure fat oxidation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <t>It is measured using Ganong's Respirometer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is a dimensionless number used in calculations of basal metabolic rate (BMR) when estimated from carbon dioxide production. Such measurements, like measurements of oxygen uptake, are forms of indirect calorimetry. </t>
   </si>
 </sst>
 </file>
@@ -165,7 +236,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,15 +257,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -203,12 +279,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -216,7 +307,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,128 +651,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="62.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="2" customWidth="1"/>
-    <col min="7" max="7" width="58.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="41.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22" style="2" customWidth="1"/>
+    <col min="8" max="8" width="58.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="60">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="165">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:8" ht="165">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="8" spans="1:8" ht="75">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/poznamky/Glossary.xlsx
+++ b/poznamky/Glossary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>LT</t>
   </si>
@@ -165,9 +165,6 @@
     <t xml:space="preserve"> respiratory quotient, coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>RQ = CO2 eliminated / O2 consumed</t>
   </si>
   <si>
@@ -225,12 +222,39 @@
   <si>
     <t xml:space="preserve">is a dimensionless number used in calculations of basal metabolic rate (BMR) when estimated from carbon dioxide production. Such measurements, like measurements of oxygen uptake, are forms of indirect calorimetry. </t>
   </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t>Rated Perceived Exertion Scale</t>
+  </si>
+  <si>
+    <t>The RPE scale is used to measure the intensity of your exercise. The RPE scale runs from 0 – 10. The numbers below relate to phrases used to rate how easy or difficult you find an activity. For example, 0 (nothing at all) would be how you feel when sitting in a chair; 10 (very, very heavy) is how you feel at the end of an exercise stress test or after a very difficult activity.
+0 – Nothing at all 
+0.5 – Just noticeable 
+1 – Very light 
+2 – Light 
+3 – Moderate 
+4 –   Somewhat heavy 
+5 – Heavy 
+6  
+7 – Very heavy 
+8  
+9  
+10 – Very, very heavy</t>
+  </si>
+  <si>
+    <t>VO2</t>
+  </si>
+  <si>
+    <t>l/m (liters per minute)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,6 +278,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,9 +327,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -320,7 +353,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -651,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -762,81 +796,99 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="165">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8" ht="165">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="75">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:8" ht="75">
+      <c r="A9" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="270">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId1"/>
     <hyperlink ref="H5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/poznamky/Glossary.xlsx
+++ b/poznamky/Glossary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>LT</t>
   </si>
@@ -67,33 +67,6 @@
   </si>
   <si>
     <t>http://home.trainingpeaks.com/blog/article/what-is-threshold-power</t>
-  </si>
-  <si>
-    <r>
-      <t>exercise</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> intensity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> at which lactate begins to accumulate in a person's blood, begins to exponentially increase</t>
-    </r>
   </si>
   <si>
     <t>anaerobic threshold</t>
@@ -248,6 +221,48 @@
   </si>
   <si>
     <t>l/m (liters per minute)</t>
+  </si>
+  <si>
+    <r>
+      <t>exercise</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> intensity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at which lactate begins to accumulate in a person's blood, begins to exponentially increase,</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Think of lactate threshold as the point at which your body can no longer run on just oxygen alone and you start to dig into your glycogen reserves. </t>
+  </si>
+  <si>
+    <t>https://kurtkinetic.com/blog/posts/how-to-test-for-ftp-and-set-training-zones/</t>
+  </si>
+  <si>
+    <t>With a fit test, we're trying to establish a wattage number that corresponds to our lactate threshold and gives us a functional threshold power number</t>
+  </si>
+  <si>
+    <t>20-minute time trial effort.</t>
+  </si>
+  <si>
+    <t>Training Zones</t>
   </si>
 </sst>
 </file>
@@ -685,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -721,13 +736,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60">
@@ -738,158 +753,181 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:8" ht="60">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="165">
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="165">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="75">
+      <c r="H8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="75">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="270">
+      <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="270">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1"/>
-    <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId1"/>
+    <hyperlink ref="H6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/poznamky/Glossary.xlsx
+++ b/poznamky/Glossary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>LT</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>Training Zones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if your average heart rate in the test was 179 bpm, your lactate threshold heart rate is approximately (179 x 0.95 =) 170 bpm. </t>
+  </si>
+  <si>
+    <t>https://experiencelife.com/article/test-your-endurance/</t>
   </si>
 </sst>
 </file>
@@ -700,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -785,149 +791,164 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="165">
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="165">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="75">
+      <c r="H9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="75">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="270">
-      <c r="A11" s="2" t="s">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="270">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H8" r:id="rId1"/>
-    <hyperlink ref="H6" r:id="rId2"/>
+    <hyperlink ref="H9" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/poznamky/Glossary.xlsx
+++ b/poznamky/Glossary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="2900" windowWidth="33240" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="5320" yWindow="2040" windowWidth="33240" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>LT</t>
   </si>
@@ -84,40 +84,10 @@
     <t>aerobic threshold</t>
   </si>
   <si>
-    <t>LT - especially when expressed as a power output</t>
-  </si>
-  <si>
     <t>blood concentration of lactate</t>
   </si>
   <si>
     <t>mM</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">predictor of their </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>endurance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> performance ability.When you raise your LT, you can produce more power at a comfortable heart rate</t>
-    </r>
   </si>
   <si>
     <t>Test</t>
@@ -270,12 +240,258 @@
   <si>
     <t>https://experiencelife.com/article/test-your-endurance/</t>
   </si>
+  <si>
+    <t>Anaerobic capacity</t>
+  </si>
+  <si>
+    <t>Jednotkou výkonu je Watt [W] 1W =1 J/1s</t>
+  </si>
+  <si>
+    <t>Výkon/Power</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>work done by a force of one newton when its point of application moves through a distance of one meter in the direction of the force: equivalent to 10 7ergs and one watt-second.</t>
+  </si>
+  <si>
+    <t>Work,Energy</t>
+  </si>
+  <si>
+    <t>J, Ws</t>
+  </si>
+  <si>
+    <r>
+      <t>Anaerobic capacity</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the Wingate test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the total amount of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> accomplished over a 30-second bout</t>
+    </r>
+  </si>
+  <si>
+    <t>kilogram-Joules</t>
+  </si>
+  <si>
+    <t>http://www.sport-fitness-advisor.com/wingate-test.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">??? Niekto to uvadza v W, alebo W/kg co je podla mna zle kedze je to praca mala by byt v Jouloch, nie ? Anaerobic capacity is expressed as kilogram-Joules (1 kg-m = 9.804 J) and is calculated by adding together each 5-second peak power output over the 30 seconds. </t>
+  </si>
+  <si>
+    <t>wingate test</t>
+  </si>
+  <si>
+    <t>The answer is that there is no one universally accepted definition. To make it simple, we will define the LT as the maximum steady state effort that can be maintained without lactate continually increasing. Others may use a different definition but we believe this one is best because it represents a physiological phenomenon that is important for endurance performance.</t>
+  </si>
+  <si>
+    <t>http://www.lactate.com/lactate_threshold.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">physiological phenomenon that is important for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endurance performance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">predictor of their </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">endurance performance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ability.When you raise your LT, you can produce more power at a comfortable heart rate</t>
+    </r>
+  </si>
+  <si>
+    <t>It is often called aerobic capacity.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">anaerobic threshold vs lactate treshold: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lactate accumulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only determines the balance between lactate production and its clearance and suggests </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nothing about the availability or lack of oxygen so the terms aerobic and anaerobic become a bit misleading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>http://www.sport-fitness-advisor.com/lactate-threshold.html</t>
+  </si>
+  <si>
+    <t>Maximal Lactate Steady State</t>
+  </si>
+  <si>
+    <t>OBLA</t>
+  </si>
+  <si>
+    <t>LT - especially when expressed as a power output,…...
+…..
+is normally expressed as a percentage of an individuals VO2 max.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Race pace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has been closely associated with lactate threshold</t>
+    </r>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>http://www.sport-fitness-advisor.com/lactate-threshold-training.html</t>
+  </si>
+  <si>
+    <t>Conconi and co-workers (9) themselves acknowledge this controversy and cite studies that both support and contradict their original findings.,
+http://www.sport-fitness-advisor.com/anaerobicthreshold.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,12 +564,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -367,15 +585,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -706,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -720,12 +961,12 @@
     <col min="4" max="4" width="53.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="58.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="8" width="22" style="2" customWidth="1"/>
+    <col min="9" max="9" width="58.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -742,16 +983,19 @@
         <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -759,196 +1003,364 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="60">
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="60">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="45">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="150">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="I5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="165">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="90">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="75">
-      <c r="A11" s="3" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="75">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="165">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="75">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="270">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="270">
-      <c r="A12" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="2" t="s">
-        <v>45</v>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="45">
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="I15" r:id="rId1"/>
+    <hyperlink ref="I13" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I27" r:id="rId4"/>
+    <hyperlink ref="I12" r:id="rId5"/>
+    <hyperlink ref="I10" r:id="rId6"/>
+    <hyperlink ref="H2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
